--- a/PhanMemGiaoThucAnNhanh/PhanMemGiaoThucAnNhanh/bin/Debug/PhieuBaoCao_HoanTat.xlsx
+++ b/PhanMemGiaoThucAnNhanh/PhanMemGiaoThucAnNhanh/bin/Debug/PhieuBaoCao_HoanTat.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="54">
   <si>
     <t>Địa chỉ: </t>
   </si>
@@ -54,7 +54,7 @@
     <t>[TMP]</t>
   </si>
   <si>
-    <t>800,000 VNĐ</t>
+    <t>1,030,000 VNĐ</t>
   </si>
   <si>
     <t>(Ký và ghi rõ họ tên)</t>
@@ -86,7 +86,7 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t>KFC Hồ Chí Minh chi nhánh số 5</t>
+    <t>KFC Hồ Chí Minh</t>
   </si>
   <si>
     <t>BÁO CÁO DOANH THU</t>
@@ -143,31 +143,36 @@
     <t>                  TP.HCM, Ngày25 tháng 10 năm 2024</t>
   </si>
   <si>
+    <t>item-004</t>
+  </si>
+  <si>
+    <t>item-002</t>
+  </si>
+  <si>
+    <t>item-003</t>
+  </si>
+  <si>
     <t>item-001</t>
   </si>
   <si>
-    <t>item-002</t>
-  </si>
-  <si>
-    <t>item-003</t>
+    <t>Crispy Chicken Burger</t>
+  </si>
+  <si>
+    <t>Gà Rán Sốt BBQ</t>
+  </si>
+  <si>
+    <t>Zinger Burger</t>
   </si>
   <si>
     <t>Gà Rán Giòn</t>
-  </si>
-  <si>
-    <t>Gà Rán Sốt BBQ</t>
-  </si>
-  <si>
-    <t>Zinger Burger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -520,8 +525,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,8 +761,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G14:M17" totalsRowShown="0">
-  <autoFilter ref="G14:M17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G14:M25" totalsRowShown="0">
+  <autoFilter ref="G14:M25"/>
   <tableColumns>
     <tableColumn id="1" name="STT"/>
     <tableColumn id="2" name="Mã món ăn"/>
@@ -1088,7 +1093,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="G1:P29"/>
+  <dimension ref="G1:P37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="I12" sqref="I12"/>
@@ -1200,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="35">
-        <v>45590</v>
+        <v>45566</v>
       </c>
       <c r="M10" s="8"/>
     </row>
@@ -1225,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="29">
-        <v>337449403</v>
+        <v>123456789</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -1274,19 +1279,19 @@
         <v>32</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J15" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="L15" s="4">
-        <v>300000</v>
+        <v>195000</v>
       </c>
       <c r="M15" s="36">
-        <v>45590</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="16" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1297,19 +1302,19 @@
         <v>33</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J16" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4">
         <v>55000</v>
       </c>
       <c r="L16" s="4">
-        <v>440000</v>
+        <v>110000</v>
       </c>
       <c r="M16" s="36">
-        <v>45590</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="17" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1320,7 +1325,7 @@
         <v>34</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
@@ -1332,103 +1337,207 @@
         <v>60000</v>
       </c>
       <c r="M17" s="36">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G18" s="9">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>60000</v>
+      </c>
+      <c r="L18" s="4">
+        <v>60000</v>
+      </c>
+      <c r="M18" s="36">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>55000</v>
+      </c>
+      <c r="L19" s="4">
+        <v>55000</v>
+      </c>
+      <c r="M19" s="36">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G20" s="9">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>60000</v>
+      </c>
+      <c r="L20" s="4">
+        <v>60000</v>
+      </c>
+      <c r="M20" s="36">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G21" s="9">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L21" s="4">
+        <v>50000</v>
+      </c>
+      <c r="M21" s="36">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G22" s="9">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>65000</v>
+      </c>
+      <c r="L22" s="4">
+        <v>130000</v>
+      </c>
+      <c r="M22" s="36">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G23" s="9">
+        <v>9</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>60000</v>
+      </c>
+      <c r="L23" s="4">
+        <v>60000</v>
+      </c>
+      <c r="M23" s="36">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G24" s="9">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>55000</v>
+      </c>
+      <c r="L24" s="4">
+        <v>55000</v>
+      </c>
+      <c r="M24" s="36">
+        <v>45589</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G25" s="9">
+        <v>11</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4">
+        <v>65000</v>
+      </c>
+      <c r="L25" s="4">
+        <v>195000</v>
+      </c>
+      <c r="M25" s="36">
         <v>45590</v>
       </c>
     </row>
-    <row r="18" spans="7:13" ht="20.45" customHeight="1">
-      <c r="G18" s="31" t="s">
+    <row r="26" spans="7:13" ht="20.45" customHeight="1">
+      <c r="G26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="7:13" ht="7.9" customHeight="1">
-      <c r="G19" s="7"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="7:13">
-      <c r="G20" s="7"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="7:13" ht="20.45" customHeight="1">
-      <c r="G21" s="7"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="7:13" ht="16.15" customHeight="1">
-      <c r="G22" s="7"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="7:13" ht="22.15" customHeight="1">
-      <c r="G23" s="7"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="7:13" ht="19.15" customHeight="1">
-      <c r="G24" s="7"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="7:13">
-      <c r="G25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="7:13">
-      <c r="G26" s="7"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="7:13">
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="7:13" ht="7.9" customHeight="1">
       <c r="G27" s="7"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1446,18 +1555,98 @@
       <c r="L28" s="2"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="7:13" ht="15" thickBot="1">
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
+    <row r="29" spans="7:13" ht="20.45" customHeight="1">
+      <c r="G29" s="7"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="7:13" ht="16.15" customHeight="1">
+      <c r="G30" s="7"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="7:13" ht="22.15" customHeight="1">
+      <c r="G31" s="7"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="7:13" ht="19.15" customHeight="1">
+      <c r="G32" s="7"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="7:13">
+      <c r="G33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="7:13">
+      <c r="G34" s="7"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="7:13">
+      <c r="G35" s="7"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="7:13">
+      <c r="G36" s="7"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="7:13" ht="15" thickBot="1">
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G26:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/PhanMemGiaoThucAnNhanh/PhanMemGiaoThucAnNhanh/bin/Debug/PhieuBaoCao_HoanTat.xlsx
+++ b/PhanMemGiaoThucAnNhanh/PhanMemGiaoThucAnNhanh/bin/Debug/PhieuBaoCao_HoanTat.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111" count="218">
   <si>
     <t>Địa chỉ: </t>
   </si>
@@ -54,7 +54,7 @@
     <t>[TMP]</t>
   </si>
   <si>
-    <t>1,030,000 VNĐ</t>
+    <t>11,413,000 VNĐ</t>
   </si>
   <si>
     <t>(Ký và ghi rõ họ tên)</t>
@@ -143,28 +143,241 @@
     <t>                  TP.HCM, Ngày25 tháng 10 năm 2024</t>
   </si>
   <si>
+    <t>6-Fried-Chicken-new</t>
+  </si>
+  <si>
+    <t>item-003</t>
+  </si>
+  <si>
     <t>item-004</t>
   </si>
   <si>
-    <t>item-002</t>
-  </si>
-  <si>
-    <t>item-003</t>
+    <t>6-Chewy-Cheese</t>
+  </si>
+  <si>
+    <t>7UP_CAN</t>
   </si>
   <si>
     <t>item-001</t>
   </si>
   <si>
+    <t>item-005</t>
+  </si>
+  <si>
+    <t>10_Nuggests.jpg</t>
+  </si>
+  <si>
+    <t>5_Nuggests</t>
+  </si>
+  <si>
+    <t>Burger-Flava</t>
+  </si>
+  <si>
+    <t>FF-J</t>
+  </si>
+  <si>
+    <t>khoai-mui-cau-R.jpg</t>
+  </si>
+  <si>
+    <t>MP-(L)-new</t>
+  </si>
+  <si>
+    <t>ChoCo_Hot</t>
+  </si>
+  <si>
+    <t>Lipton (1)</t>
+  </si>
+  <si>
+    <t>pepsi-zero</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>MOD-PHI-LE-GA-QUAY</t>
+  </si>
+  <si>
+    <t>POP-L</t>
+  </si>
+  <si>
+    <t>3_Nuggests</t>
+  </si>
+  <si>
+    <t>5-HW</t>
+  </si>
+  <si>
+    <t>10-TENDERS</t>
+  </si>
+  <si>
+    <t>Burger-Shrimp</t>
+  </si>
+  <si>
+    <t>3-Fishsticks</t>
+  </si>
+  <si>
+    <t>FF-R</t>
+  </si>
+  <si>
+    <t>POP-R</t>
+  </si>
+  <si>
+    <t>FF-L</t>
+  </si>
+  <si>
+    <t>3-HW</t>
+  </si>
+  <si>
+    <t>5-TENDERS</t>
+  </si>
+  <si>
+    <t>PEPSI_CAN</t>
+  </si>
+  <si>
+    <t>AQUAFINA</t>
+  </si>
+  <si>
+    <t>Peach-Tea.jpg</t>
+  </si>
+  <si>
+    <t>SALAD-HAT-GA-VIEN</t>
+  </si>
+  <si>
+    <t>4-Chewy-Cheese</t>
+  </si>
+  <si>
+    <t>khoai-mui-cau-L</t>
+  </si>
+  <si>
+    <t>MP-(R)-new</t>
+  </si>
+  <si>
+    <t>Lipton</t>
+  </si>
+  <si>
+    <t>2-Fried-Chicken</t>
+  </si>
+  <si>
+    <t>2-TENDERS</t>
+  </si>
+  <si>
+    <t>6 Miếng Gà Rán</t>
+  </si>
+  <si>
+    <t>Zinger Burger</t>
+  </si>
+  <si>
     <t>Crispy Chicken Burger</t>
   </si>
   <si>
-    <t>Gà Rán Sốt BBQ</t>
-  </si>
-  <si>
-    <t>Zinger Burger</t>
+    <t>6 Phô Mai Viên</t>
+  </si>
+  <si>
+    <t>7Up Lon</t>
   </si>
   <si>
     <t>Gà Rán Giòn</t>
+  </si>
+  <si>
+    <t>1 miếng gà</t>
+  </si>
+  <si>
+    <t>10 Gà Miếng Nuggets</t>
+  </si>
+  <si>
+    <t>5 Gà Miếng Nuggets</t>
+  </si>
+  <si>
+    <t>Burger Gà Quay Flava</t>
+  </si>
+  <si>
+    <t>Khoai Tây Chiên (Đại)</t>
+  </si>
+  <si>
+    <t>Khoai Tây Múi Cau (Vừa)</t>
+  </si>
+  <si>
+    <t>Khoai Tây Nghiền (Lớn)</t>
+  </si>
+  <si>
+    <t>1 Sô-cô-la Sữa Nóng</t>
+  </si>
+  <si>
+    <t>Trà Chanh Lipton (Vừa)</t>
+  </si>
+  <si>
+    <t>Pepsi Không Calo Lon</t>
+  </si>
+  <si>
+    <t>1 Miếng Đùi Gà Quay</t>
+  </si>
+  <si>
+    <t>1 Miếng Phi-lê Gà Quay</t>
+  </si>
+  <si>
+    <t>Gà Viên (Lớn)</t>
+  </si>
+  <si>
+    <t>3 Gà Miếng Nuggets</t>
+  </si>
+  <si>
+    <t>5 Cánh Gà Hot Wings</t>
+  </si>
+  <si>
+    <t>10 Gà Rán Tenders Vị Nguyên Bản</t>
+  </si>
+  <si>
+    <t>Burger Tôm</t>
+  </si>
+  <si>
+    <t>3 Cá Thanh</t>
+  </si>
+  <si>
+    <t>Khoai Tây Chiên (Vừa)</t>
+  </si>
+  <si>
+    <t>Gà Viên (Vừa)</t>
+  </si>
+  <si>
+    <t>Khoai Tây Chiên (Lớn)</t>
+  </si>
+  <si>
+    <t>3 Cánh Gà Hot Wings</t>
+  </si>
+  <si>
+    <t>5 Gà Rán Tenders Vị Nguyên Bản</t>
+  </si>
+  <si>
+    <t>Pepsi Lon</t>
+  </si>
+  <si>
+    <t>Aquafina 500ml</t>
+  </si>
+  <si>
+    <t>Trà Đào</t>
+  </si>
+  <si>
+    <t>Salad Pop</t>
+  </si>
+  <si>
+    <t>4 Phô Mai Viên</t>
+  </si>
+  <si>
+    <t>Salad Hạt</t>
+  </si>
+  <si>
+    <t>Khoai Tây Múi Cau (Lớn)</t>
+  </si>
+  <si>
+    <t>Khoai Tây Nghiền (Vừa)</t>
+  </si>
+  <si>
+    <t>Trà Chanh Lipton (Lớn)</t>
+  </si>
+  <si>
+    <t>2 Miếng Gà Rán</t>
+  </si>
+  <si>
+    <t>2 Gà Rán Tenders Vị Nguyên Bản</t>
   </si>
 </sst>
 </file>
@@ -761,8 +974,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G14:M25" totalsRowShown="0">
-  <autoFilter ref="G14:M25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G14:M107" totalsRowShown="0">
+  <autoFilter ref="G14:M107"/>
   <tableColumns>
     <tableColumn id="1" name="STT"/>
     <tableColumn id="2" name="Mã món ăn"/>
@@ -1093,7 +1306,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="G1:P37"/>
+  <dimension ref="G1:P119"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="I12" sqref="I12"/>
@@ -1205,7 +1418,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="35">
-        <v>45566</v>
+        <v>45316</v>
       </c>
       <c r="M10" s="8"/>
     </row>
@@ -1279,19 +1492,19 @@
         <v>32</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="J15" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4">
-        <v>65000</v>
+        <v>204000</v>
       </c>
       <c r="L15" s="4">
-        <v>195000</v>
+        <v>204000</v>
       </c>
       <c r="M15" s="36">
-        <v>45589</v>
+        <v>45466</v>
       </c>
     </row>
     <row r="16" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1302,19 +1515,19 @@
         <v>33</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="J16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="L16" s="4">
-        <v>110000</v>
+        <v>180000</v>
       </c>
       <c r="M16" s="36">
-        <v>45589</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="17" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1325,19 +1538,19 @@
         <v>34</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="J17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="L17" s="4">
-        <v>60000</v>
+        <v>130000</v>
       </c>
       <c r="M17" s="36">
-        <v>45589</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="18" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1345,22 +1558,22 @@
         <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="J18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" s="4">
-        <v>60000</v>
+        <v>49000</v>
       </c>
       <c r="L18" s="4">
-        <v>60000</v>
+        <v>196000</v>
       </c>
       <c r="M18" s="36">
-        <v>45589</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="19" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1368,22 +1581,22 @@
         <v>5</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="4">
-        <v>55000</v>
+        <v>19000</v>
       </c>
       <c r="L19" s="4">
-        <v>55000</v>
+        <v>38000</v>
       </c>
       <c r="M19" s="36">
-        <v>45589</v>
+        <v>45560</v>
       </c>
     </row>
     <row r="20" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1391,22 +1604,22 @@
         <v>6</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L20" s="4">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="M20" s="36">
-        <v>45589</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="21" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1414,22 +1627,22 @@
         <v>7</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
       <c r="K21" s="4">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L21" s="4">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M21" s="36">
-        <v>45589</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="22" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1440,19 +1653,19 @@
         <v>32</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="J22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4">
-        <v>65000</v>
+        <v>204000</v>
       </c>
       <c r="L22" s="4">
-        <v>130000</v>
+        <v>204000</v>
       </c>
       <c r="M22" s="36">
-        <v>45589</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="23" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1460,22 +1673,22 @@
         <v>9</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J23" s="4">
         <v>1</v>
       </c>
       <c r="K23" s="4">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="L23" s="4">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="M23" s="36">
-        <v>45589</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="24" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1483,22 +1696,22 @@
         <v>10</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="J24" s="4">
         <v>1</v>
       </c>
       <c r="K24" s="4">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="L24" s="4">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="M24" s="36">
-        <v>45589</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="25" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
@@ -1506,147 +1719,2033 @@
         <v>11</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L25" s="4">
+        <v>45000</v>
+      </c>
+      <c r="M25" s="36">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G26" s="9">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>54000</v>
+      </c>
+      <c r="L26" s="4">
+        <v>54000</v>
+      </c>
+      <c r="M26" s="36">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G27" s="9">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>38000</v>
+      </c>
+      <c r="L27" s="4">
+        <v>38000</v>
+      </c>
+      <c r="M27" s="36">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G28" s="9">
+        <v>14</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="4">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>23000</v>
+      </c>
+      <c r="L28" s="4">
+        <v>46000</v>
+      </c>
+      <c r="M28" s="36">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G29" s="9">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>22000</v>
+      </c>
+      <c r="L29" s="4">
+        <v>22000</v>
+      </c>
+      <c r="M29" s="36">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="30" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G30" s="9">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="4">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>20000</v>
+      </c>
+      <c r="L30" s="4">
+        <v>40000</v>
+      </c>
+      <c r="M30" s="36">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="31" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G31" s="9">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="4">
+        <v>2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>12000</v>
+      </c>
+      <c r="L31" s="4">
+        <v>24000</v>
+      </c>
+      <c r="M31" s="36">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="32" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G32" s="9">
+        <v>18</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="4">
+        <v>3</v>
+      </c>
+      <c r="K32" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L32" s="4">
+        <v>57000</v>
+      </c>
+      <c r="M32" s="36">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G33" s="9">
+        <v>19</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="4">
+        <v>3</v>
+      </c>
+      <c r="K33" s="4">
+        <v>75000</v>
+      </c>
+      <c r="L33" s="4">
+        <v>225000</v>
+      </c>
+      <c r="M33" s="36">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="34" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G34" s="9">
+        <v>20</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" s="4">
+        <v>2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>39000</v>
+      </c>
+      <c r="L34" s="4">
+        <v>78000</v>
+      </c>
+      <c r="M34" s="36">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G35" s="9">
+        <v>21</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
+      <c r="K35" s="4">
+        <v>64000</v>
+      </c>
+      <c r="L35" s="4">
+        <v>192000</v>
+      </c>
+      <c r="M35" s="36">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="36" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G36" s="9">
+        <v>22</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="4">
+        <v>3</v>
+      </c>
+      <c r="K36" s="4">
+        <v>27000</v>
+      </c>
+      <c r="L36" s="4">
+        <v>81000</v>
+      </c>
+      <c r="M36" s="36">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="37" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G37" s="9">
+        <v>23</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="4">
+        <v>2</v>
+      </c>
+      <c r="K37" s="4">
+        <v>85000</v>
+      </c>
+      <c r="L37" s="4">
+        <v>170000</v>
+      </c>
+      <c r="M37" s="36">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="38" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G38" s="9">
+        <v>24</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>129000</v>
+      </c>
+      <c r="L38" s="4">
+        <v>258000</v>
+      </c>
+      <c r="M38" s="36">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="39" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G39" s="9">
+        <v>25</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="4">
+        <v>2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>60000</v>
+      </c>
+      <c r="L39" s="4">
+        <v>120000</v>
+      </c>
+      <c r="M39" s="36">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="40" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G40" s="9">
+        <v>26</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>65000</v>
+      </c>
+      <c r="L40" s="4">
+        <v>130000</v>
+      </c>
+      <c r="M40" s="36">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="41" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G41" s="9">
+        <v>27</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J41" s="4">
+        <v>2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L41" s="4">
+        <v>90000</v>
+      </c>
+      <c r="M41" s="36">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="42" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G42" s="9">
+        <v>28</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>54000</v>
+      </c>
+      <c r="L42" s="4">
+        <v>108000</v>
+      </c>
+      <c r="M42" s="36">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="43" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G43" s="9">
+        <v>29</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J43" s="4">
+        <v>3</v>
+      </c>
+      <c r="K43" s="4">
+        <v>38000</v>
+      </c>
+      <c r="L43" s="4">
+        <v>114000</v>
+      </c>
+      <c r="M43" s="36">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="44" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G44" s="9">
+        <v>30</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="4">
+        <v>2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>129000</v>
+      </c>
+      <c r="L44" s="4">
+        <v>258000</v>
+      </c>
+      <c r="M44" s="36">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="45" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G45" s="9">
+        <v>31</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="4">
+        <v>3</v>
+      </c>
+      <c r="K45" s="4">
+        <v>40000</v>
+      </c>
+      <c r="L45" s="4">
+        <v>120000</v>
+      </c>
+      <c r="M45" s="36">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="46" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G46" s="9">
         <v>32</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="H46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" s="4">
+        <v>4</v>
+      </c>
+      <c r="K46" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L46" s="4">
+        <v>76000</v>
+      </c>
+      <c r="M46" s="36">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="47" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G47" s="9">
+        <v>33</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" s="4">
+        <v>3</v>
+      </c>
+      <c r="K47" s="4">
+        <v>50000</v>
+      </c>
+      <c r="L47" s="4">
+        <v>150000</v>
+      </c>
+      <c r="M47" s="36">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="48" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G48" s="9">
+        <v>34</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="4">
+        <v>4</v>
+      </c>
+      <c r="K48" s="4">
+        <v>204000</v>
+      </c>
+      <c r="L48" s="4">
+        <v>816000</v>
+      </c>
+      <c r="M48" s="36">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="49" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G49" s="9">
+        <v>35</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>85000</v>
+      </c>
+      <c r="L49" s="4">
+        <v>85000</v>
+      </c>
+      <c r="M49" s="36">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="50" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G50" s="9">
         <v>36</v>
       </c>
-      <c r="J25" s="4">
+      <c r="H50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>38000</v>
+      </c>
+      <c r="L50" s="4">
+        <v>38000</v>
+      </c>
+      <c r="M50" s="36">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="51" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G51" s="9">
+        <v>37</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="4">
+        <v>2</v>
+      </c>
+      <c r="K51" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L51" s="4">
+        <v>38000</v>
+      </c>
+      <c r="M51" s="36">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="52" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G52" s="9">
+        <v>38</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="4">
+        <v>2</v>
+      </c>
+      <c r="K52" s="4">
+        <v>28000</v>
+      </c>
+      <c r="L52" s="4">
+        <v>56000</v>
+      </c>
+      <c r="M52" s="36">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="53" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G53" s="9">
+        <v>39</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J53" s="4">
+        <v>2</v>
+      </c>
+      <c r="K53" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L53" s="4">
+        <v>38000</v>
+      </c>
+      <c r="M53" s="36">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="54" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G54" s="9">
+        <v>40</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" s="4">
         <v>3</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K54" s="4">
+        <v>54000</v>
+      </c>
+      <c r="L54" s="4">
+        <v>162000</v>
+      </c>
+      <c r="M54" s="36">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="55" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G55" s="9">
+        <v>41</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J55" s="4">
+        <v>3</v>
+      </c>
+      <c r="K55" s="4">
+        <v>85000</v>
+      </c>
+      <c r="L55" s="4">
+        <v>255000</v>
+      </c>
+      <c r="M55" s="36">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="56" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G56" s="9">
+        <v>42</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="4">
+        <v>3</v>
+      </c>
+      <c r="K56" s="4">
+        <v>66000</v>
+      </c>
+      <c r="L56" s="4">
+        <v>198000</v>
+      </c>
+      <c r="M56" s="36">
+        <v>45462</v>
+      </c>
+    </row>
+    <row r="57" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G57" s="9">
+        <v>43</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J57" s="4">
+        <v>6</v>
+      </c>
+      <c r="K57" s="4">
+        <v>75000</v>
+      </c>
+      <c r="L57" s="4">
+        <v>450000</v>
+      </c>
+      <c r="M57" s="36">
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="58" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G58" s="9">
+        <v>44</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58" s="4">
+        <v>3</v>
+      </c>
+      <c r="K58" s="4">
+        <v>27000</v>
+      </c>
+      <c r="L58" s="4">
+        <v>81000</v>
+      </c>
+      <c r="M58" s="36">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="59" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G59" s="9">
+        <v>45</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J59" s="4">
+        <v>3</v>
+      </c>
+      <c r="K59" s="4">
+        <v>28000</v>
+      </c>
+      <c r="L59" s="4">
+        <v>84000</v>
+      </c>
+      <c r="M59" s="36">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="60" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G60" s="9">
+        <v>46</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J60" s="4">
+        <v>3</v>
+      </c>
+      <c r="K60" s="4">
+        <v>64000</v>
+      </c>
+      <c r="L60" s="4">
+        <v>192000</v>
+      </c>
+      <c r="M60" s="36">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="61" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G61" s="9">
+        <v>47</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61" s="4">
+        <v>3</v>
+      </c>
+      <c r="K61" s="4">
+        <v>27000</v>
+      </c>
+      <c r="L61" s="4">
+        <v>81000</v>
+      </c>
+      <c r="M61" s="36">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="62" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G62" s="9">
+        <v>48</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J62" s="4">
+        <v>3</v>
+      </c>
+      <c r="K62" s="4">
         <v>65000</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L62" s="4">
         <v>195000</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M62" s="36">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="63" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G63" s="9">
+        <v>49</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J63" s="4">
+        <v>3</v>
+      </c>
+      <c r="K63" s="4">
+        <v>28000</v>
+      </c>
+      <c r="L63" s="4">
+        <v>84000</v>
+      </c>
+      <c r="M63" s="36">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="64" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G64" s="9">
+        <v>50</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>60000</v>
+      </c>
+      <c r="L64" s="4">
+        <v>60000</v>
+      </c>
+      <c r="M64" s="36">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="65" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G65" s="9">
+        <v>51</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>28000</v>
+      </c>
+      <c r="L65" s="4">
+        <v>28000</v>
+      </c>
+      <c r="M65" s="36">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="66" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G66" s="9">
+        <v>52</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L66" s="4">
+        <v>19000</v>
+      </c>
+      <c r="M66" s="36">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="67" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G67" s="9">
+        <v>53</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>15000</v>
+      </c>
+      <c r="L67" s="4">
+        <v>15000</v>
+      </c>
+      <c r="M67" s="36">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="68" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G68" s="9">
+        <v>54</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>24000</v>
+      </c>
+      <c r="L68" s="4">
+        <v>24000</v>
+      </c>
+      <c r="M68" s="36">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="69" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G69" s="9">
+        <v>55</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J69" s="4">
+        <v>2</v>
+      </c>
+      <c r="K69" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L69" s="4">
+        <v>90000</v>
+      </c>
+      <c r="M69" s="36">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="70" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G70" s="9">
+        <v>56</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J70" s="4">
+        <v>2</v>
+      </c>
+      <c r="K70" s="4">
+        <v>36000</v>
+      </c>
+      <c r="L70" s="4">
+        <v>72000</v>
+      </c>
+      <c r="M70" s="36">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="71" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G71" s="9">
+        <v>57</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71" s="4">
+        <v>3</v>
+      </c>
+      <c r="K71" s="4">
+        <v>22000</v>
+      </c>
+      <c r="L71" s="4">
+        <v>66000</v>
+      </c>
+      <c r="M71" s="36">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="72" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G72" s="9">
+        <v>58</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L72" s="4">
+        <v>19000</v>
+      </c>
+      <c r="M72" s="36">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="73" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G73" s="9">
+        <v>59</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L73" s="4">
+        <v>19000</v>
+      </c>
+      <c r="M73" s="36">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="74" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G74" s="9">
+        <v>60</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J74" s="4">
+        <v>3</v>
+      </c>
+      <c r="K74" s="4">
+        <v>129000</v>
+      </c>
+      <c r="L74" s="4">
+        <v>387000</v>
+      </c>
+      <c r="M74" s="36">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="75" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G75" s="9">
+        <v>61</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" s="4">
+        <v>4</v>
+      </c>
+      <c r="K75" s="4">
+        <v>40000</v>
+      </c>
+      <c r="L75" s="4">
+        <v>160000</v>
+      </c>
+      <c r="M75" s="36">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="76" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G76" s="9">
+        <v>62</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J76" s="4">
+        <v>2</v>
+      </c>
+      <c r="K76" s="4">
+        <v>38000</v>
+      </c>
+      <c r="L76" s="4">
+        <v>76000</v>
+      </c>
+      <c r="M76" s="36">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="77" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G77" s="9">
+        <v>63</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J77" s="4">
+        <v>3</v>
+      </c>
+      <c r="K77" s="4">
+        <v>36000</v>
+      </c>
+      <c r="L77" s="4">
+        <v>108000</v>
+      </c>
+      <c r="M77" s="36">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="78" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G78" s="9">
+        <v>64</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J78" s="4">
+        <v>3</v>
+      </c>
+      <c r="K78" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L78" s="4">
+        <v>135000</v>
+      </c>
+      <c r="M78" s="36">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="79" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G79" s="9">
+        <v>65</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J79" s="4">
+        <v>3</v>
+      </c>
+      <c r="K79" s="4">
+        <v>40000</v>
+      </c>
+      <c r="L79" s="4">
+        <v>120000</v>
+      </c>
+      <c r="M79" s="36">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="80" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G80" s="9">
+        <v>66</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J80" s="4">
+        <v>3</v>
+      </c>
+      <c r="K80" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L80" s="4">
+        <v>57000</v>
+      </c>
+      <c r="M80" s="36">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="81" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G81" s="9">
+        <v>67</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J81" s="4">
+        <v>2</v>
+      </c>
+      <c r="K81" s="4">
+        <v>43000</v>
+      </c>
+      <c r="L81" s="4">
+        <v>86000</v>
+      </c>
+      <c r="M81" s="36">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="82" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G82" s="9">
+        <v>68</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J82" s="4">
+        <v>3</v>
+      </c>
+      <c r="K82" s="4">
+        <v>12000</v>
+      </c>
+      <c r="L82" s="4">
+        <v>36000</v>
+      </c>
+      <c r="M82" s="36">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="83" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G83" s="9">
+        <v>69</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J83" s="4">
+        <v>7</v>
+      </c>
+      <c r="K83" s="4">
+        <v>65000</v>
+      </c>
+      <c r="L83" s="4">
+        <v>455000</v>
+      </c>
+      <c r="M83" s="36">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="84" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G84" s="9">
+        <v>70</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J84" s="4">
+        <v>5</v>
+      </c>
+      <c r="K84" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L84" s="4">
+        <v>95000</v>
+      </c>
+      <c r="M84" s="36">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="85" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G85" s="9">
+        <v>71</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
+        <v>64000</v>
+      </c>
+      <c r="L85" s="4">
+        <v>64000</v>
+      </c>
+      <c r="M85" s="36">
         <v>45590</v>
       </c>
     </row>
-    <row r="26" spans="7:13" ht="20.45" customHeight="1">
-      <c r="G26" s="31" t="s">
+    <row r="86" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G86" s="9">
+        <v>72</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J86" s="4">
+        <v>1</v>
+      </c>
+      <c r="K86" s="4">
+        <v>204000</v>
+      </c>
+      <c r="L86" s="4">
+        <v>204000</v>
+      </c>
+      <c r="M86" s="36">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="87" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G87" s="9">
+        <v>73</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J87" s="4">
+        <v>3</v>
+      </c>
+      <c r="K87" s="4">
+        <v>65000</v>
+      </c>
+      <c r="L87" s="4">
+        <v>195000</v>
+      </c>
+      <c r="M87" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="88" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G88" s="9">
+        <v>74</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J88" s="4">
+        <v>3</v>
+      </c>
+      <c r="K88" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L88" s="4">
+        <v>135000</v>
+      </c>
+      <c r="M88" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="89" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G89" s="9">
+        <v>75</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J89" s="4">
+        <v>3</v>
+      </c>
+      <c r="K89" s="4">
+        <v>54000</v>
+      </c>
+      <c r="L89" s="4">
+        <v>162000</v>
+      </c>
+      <c r="M89" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="90" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G90" s="9">
+        <v>76</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J90" s="4">
+        <v>5</v>
+      </c>
+      <c r="K90" s="4">
+        <v>38000</v>
+      </c>
+      <c r="L90" s="4">
+        <v>190000</v>
+      </c>
+      <c r="M90" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="91" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G91" s="9">
+        <v>77</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J91" s="4">
+        <v>3</v>
+      </c>
+      <c r="K91" s="4">
+        <v>40000</v>
+      </c>
+      <c r="L91" s="4">
+        <v>120000</v>
+      </c>
+      <c r="M91" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="92" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G92" s="9">
+        <v>78</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J92" s="4">
+        <v>3</v>
+      </c>
+      <c r="K92" s="4">
+        <v>36000</v>
+      </c>
+      <c r="L92" s="4">
+        <v>108000</v>
+      </c>
+      <c r="M92" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="93" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G93" s="9">
+        <v>79</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J93" s="4">
+        <v>1</v>
+      </c>
+      <c r="K93" s="4">
+        <v>19000</v>
+      </c>
+      <c r="L93" s="4">
+        <v>19000</v>
+      </c>
+      <c r="M93" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="94" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G94" s="9">
+        <v>80</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J94" s="4">
+        <v>1</v>
+      </c>
+      <c r="K94" s="4">
+        <v>20000</v>
+      </c>
+      <c r="L94" s="4">
+        <v>20000</v>
+      </c>
+      <c r="M94" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="95" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G95" s="9">
+        <v>81</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J95" s="4">
+        <v>3</v>
+      </c>
+      <c r="K95" s="4">
+        <v>17000</v>
+      </c>
+      <c r="L95" s="4">
+        <v>51000</v>
+      </c>
+      <c r="M95" s="36">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="96" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G96" s="9">
+        <v>82</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J96" s="4">
+        <v>2</v>
+      </c>
+      <c r="K96" s="4">
+        <v>70000</v>
+      </c>
+      <c r="L96" s="4">
+        <v>140000</v>
+      </c>
+      <c r="M96" s="36">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="97" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G97" s="9">
+        <v>83</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J97" s="4">
+        <v>3</v>
+      </c>
+      <c r="K97" s="4">
+        <v>65000</v>
+      </c>
+      <c r="L97" s="4">
+        <v>195000</v>
+      </c>
+      <c r="M97" s="36">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="98" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G98" s="9">
+        <v>84</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J98" s="4">
+        <v>3</v>
+      </c>
+      <c r="K98" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L98" s="4">
+        <v>135000</v>
+      </c>
+      <c r="M98" s="36">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="99" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G99" s="9">
+        <v>85</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J99" s="4">
+        <v>3</v>
+      </c>
+      <c r="K99" s="4">
+        <v>75000</v>
+      </c>
+      <c r="L99" s="4">
+        <v>225000</v>
+      </c>
+      <c r="M99" s="36">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="100" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G100" s="9">
+        <v>86</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J100" s="4">
+        <v>2</v>
+      </c>
+      <c r="K100" s="4">
+        <v>39000</v>
+      </c>
+      <c r="L100" s="4">
+        <v>78000</v>
+      </c>
+      <c r="M100" s="36">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="101" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G101" s="9">
+        <v>87</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J101" s="4">
+        <v>4</v>
+      </c>
+      <c r="K101" s="4">
+        <v>45000</v>
+      </c>
+      <c r="L101" s="4">
+        <v>180000</v>
+      </c>
+      <c r="M101" s="36">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="102" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G102" s="9">
+        <v>88</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J102" s="4">
+        <v>1</v>
+      </c>
+      <c r="K102" s="4">
+        <v>28000</v>
+      </c>
+      <c r="L102" s="4">
+        <v>28000</v>
+      </c>
+      <c r="M102" s="36">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="103" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G103" s="9">
+        <v>89</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J103" s="4">
+        <v>2</v>
+      </c>
+      <c r="K103" s="4">
+        <v>66000</v>
+      </c>
+      <c r="L103" s="4">
+        <v>132000</v>
+      </c>
+      <c r="M103" s="36">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="104" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G104" s="9">
+        <v>90</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J104" s="4">
+        <v>2</v>
+      </c>
+      <c r="K104" s="4">
+        <v>38000</v>
+      </c>
+      <c r="L104" s="4">
+        <v>76000</v>
+      </c>
+      <c r="M104" s="36">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="105" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G105" s="9">
+        <v>91</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J105" s="4">
+        <v>1</v>
+      </c>
+      <c r="K105" s="4">
+        <v>85000</v>
+      </c>
+      <c r="L105" s="4">
+        <v>85000</v>
+      </c>
+      <c r="M105" s="36">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="106" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G106" s="9">
+        <v>92</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J106" s="4">
+        <v>3</v>
+      </c>
+      <c r="K106" s="4">
+        <v>54000</v>
+      </c>
+      <c r="L106" s="4">
+        <v>162000</v>
+      </c>
+      <c r="M106" s="36">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="107" spans="7:13" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="G107" s="9">
+        <v>93</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J107" s="4">
+        <v>2</v>
+      </c>
+      <c r="K107" s="4">
+        <v>28000</v>
+      </c>
+      <c r="L107" s="4">
+        <v>56000</v>
+      </c>
+      <c r="M107" s="36">
+        <v>45578</v>
+      </c>
+    </row>
+    <row r="108" spans="7:13" ht="20.45" customHeight="1">
+      <c r="G108" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34" t="s">
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="33"/>
+      <c r="L108" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" spans="7:13" ht="7.9" customHeight="1">
-      <c r="G27" s="7"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="7:13">
-      <c r="G28" s="7"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="7:13" ht="20.45" customHeight="1">
-      <c r="G29" s="7"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="7:13" ht="16.15" customHeight="1">
-      <c r="G30" s="7"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="M108" s="17"/>
+    </row>
+    <row r="109" spans="7:13" ht="7.9" customHeight="1">
+      <c r="G109" s="7"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="8"/>
+    </row>
+    <row r="110" spans="7:13">
+      <c r="G110" s="7"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="8"/>
+    </row>
+    <row r="111" spans="7:13" ht="20.45" customHeight="1">
+      <c r="G111" s="7"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="8"/>
+    </row>
+    <row r="112" spans="7:13" ht="16.15" customHeight="1">
+      <c r="G112" s="7"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="7:13" ht="22.15" customHeight="1">
-      <c r="G31" s="7"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2" t="s">
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="7:13" ht="22.15" customHeight="1">
+      <c r="G113" s="7"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="7:13" ht="19.15" customHeight="1">
-      <c r="G32" s="7"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2" t="s">
+      <c r="L113" s="2"/>
+      <c r="M113" s="8"/>
+    </row>
+    <row r="114" spans="7:13" ht="19.15" customHeight="1">
+      <c r="G114" s="7"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="7:13">
-      <c r="G33" s="7" t="s">
+      <c r="L114" s="2"/>
+      <c r="M114" s="8"/>
+    </row>
+    <row r="115" spans="7:13">
+      <c r="G115" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="7:13">
-      <c r="G34" s="7"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="7:13">
-      <c r="G35" s="7"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="7:13">
-      <c r="G36" s="7"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="7:13" ht="15" thickBot="1">
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="8"/>
+    </row>
+    <row r="116" spans="7:13">
+      <c r="G116" s="7"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="8"/>
+    </row>
+    <row r="117" spans="7:13">
+      <c r="G117" s="7"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="8"/>
+    </row>
+    <row r="118" spans="7:13">
+      <c r="G118" s="7"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="8"/>
+    </row>
+    <row r="119" spans="7:13" ht="15" thickBot="1">
+      <c r="G119" s="12"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G108:K108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
